--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -100,6 +100,57 @@
   </si>
   <si>
     <t>高級鋤頭</t>
+  </si>
+  <si>
+    <t>活动所需票券数量配置表</t>
+  </si>
+  <si>
+    <t>活动类型</t>
+  </si>
+  <si>
+    <t>对应所需票数</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>$ActTicketNumCfg</t>
+  </si>
+  <si>
+    <t>actType</t>
+  </si>
+  <si>
+    <t>ticketNum</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>银券合成金券</t>
+  </si>
+  <si>
+    <t>金券合成彩券</t>
+  </si>
+  <si>
+    <t>银转盘开奖</t>
+  </si>
+  <si>
+    <t>金转盘开奖</t>
+  </si>
+  <si>
+    <t>彩转盘开奖</t>
+  </si>
+  <si>
+    <t>银宝箱开奖</t>
+  </si>
+  <si>
+    <t>金宝箱开奖</t>
+  </si>
+  <si>
+    <t>彩宝箱开奖</t>
   </si>
 </sst>
 </file>
@@ -107,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,6 +178,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -135,7 +225,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,130 +321,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,43 +337,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,139 +493,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,74 +546,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,6 +578,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,137 +666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +804,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,15 +1166,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="24.375" customWidth="1"/>
@@ -1184,6 +1265,185 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="6">
+        <v>1007</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="6">
+        <v>1009</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6">
+        <v>1011</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>彩宝箱开奖</t>
+  </si>
+  <si>
+    <t>新人登录奖励</t>
   </si>
 </sst>
 </file>
@@ -158,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,6 +182,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -202,13 +227,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,97 +258,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +358,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,7 +376,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +442,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,67 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,66 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +549,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,7 +609,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -626,26 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,145 +657,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1172,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1394,6 +1397,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="6">
+        <v>6001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="26" spans="4:7">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="27780" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,22 +135,22 @@
     <t>金券合成彩券</t>
   </si>
   <si>
-    <t>银转盘开奖</t>
-  </si>
-  <si>
-    <t>金转盘开奖</t>
-  </si>
-  <si>
-    <t>彩转盘开奖</t>
-  </si>
-  <si>
-    <t>银宝箱开奖</t>
-  </si>
-  <si>
-    <t>金宝箱开奖</t>
-  </si>
-  <si>
-    <t>彩宝箱开奖</t>
+    <t>初级转盘</t>
+  </si>
+  <si>
+    <t>中级转盘</t>
+  </si>
+  <si>
+    <t>高级转盘</t>
+  </si>
+  <si>
+    <t>初级宝箱</t>
+  </si>
+  <si>
+    <t>中级宝箱</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
   </si>
   <si>
     <t>新人登录奖励</t>
@@ -162,9 +162,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,6 +181,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -188,142 +324,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -358,12 +358,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,7 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,157 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,9 +554,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,65 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>高級鋤頭</t>
+  </si>
+  <si>
+    <t>谢谢惠顾</t>
+  </si>
+  <si>
+    <t>謝謝惠顧</t>
   </si>
   <si>
     <t>活动所需票券数量配置表</t>
@@ -181,6 +187,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -197,44 +264,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,68 +293,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -324,6 +323,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -358,13 +364,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,169 +478,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +555,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,84 +655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -890,7 +896,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1172,7 +1178,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1268,32 +1274,44 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1305,96 +1323,96 @@
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="4">
-        <v>1005</v>
+        <v>100501</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="5">
-        <v>1006</v>
+        <v>100601</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6">
-        <v>1007</v>
+        <v>100701</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="5">
-        <v>1008</v>
+        <v>100801</v>
       </c>
       <c r="C18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6">
-        <v>1009</v>
+        <v>100901</v>
       </c>
       <c r="C19" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="5">
-        <v>1010</v>
+        <v>101001</v>
       </c>
       <c r="C20" s="5">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="6">
-        <v>1011</v>
+        <v>101101</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="5">
-        <v>1012</v>
+        <v>101201</v>
       </c>
       <c r="C22" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1405,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="4:7">

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -167,9 +167,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -187,11 +187,108 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,129 +300,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,41 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +578,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,27 +621,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="6">
-        <v>6001</v>
+        <v>600101</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -81,6 +81,9 @@
     <t>u32</t>
   </si>
   <si>
+    <t>str</t>
+  </si>
+  <si>
     <t>初级锄头</t>
   </si>
   <si>
@@ -108,6 +111,189 @@
     <t>謝謝惠顧</t>
   </si>
   <si>
+    <t>19.9精品课</t>
+  </si>
+  <si>
+    <t>19.9精品課</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>99元大师课</t>
+  </si>
+  <si>
+    <t>99元大師課</t>
+  </si>
+  <si>
+    <t>《每天听本书》 VIP月卡</t>
+  </si>
+  <si>
+    <t>《每天聽本書》 VIP月卡</t>
+  </si>
+  <si>
+    <t>爱奇艺月卡</t>
+  </si>
+  <si>
+    <t>愛奇藝月卡</t>
+  </si>
+  <si>
+    <t>爱奇艺季卡</t>
+  </si>
+  <si>
+    <t>愛奇藝季卡</t>
+  </si>
+  <si>
+    <t>爱奇艺年卡</t>
+  </si>
+  <si>
+    <t>愛奇藝年卡</t>
+  </si>
+  <si>
+    <t>优酷月卡</t>
+  </si>
+  <si>
+    <t>優酷月卡</t>
+  </si>
+  <si>
+    <t>优酷季卡</t>
+  </si>
+  <si>
+    <t>優酷季卡</t>
+  </si>
+  <si>
+    <t>优酷年卡</t>
+  </si>
+  <si>
+    <t>優酷年卡</t>
+  </si>
+  <si>
+    <t>腾讯视频月卡</t>
+  </si>
+  <si>
+    <t>騰訊視頻月卡</t>
+  </si>
+  <si>
+    <t>腾讯视频季卡</t>
+  </si>
+  <si>
+    <t>騰訊視頻季卡</t>
+  </si>
+  <si>
+    <t>腾讯视频年卡</t>
+  </si>
+  <si>
+    <t>騰訊視頻年卡</t>
+  </si>
+  <si>
+    <t>虾米音乐月卡</t>
+  </si>
+  <si>
+    <t>蝦米音樂月卡</t>
+  </si>
+  <si>
+    <t>虾米音乐季卡</t>
+  </si>
+  <si>
+    <t>蝦米音樂季卡</t>
+  </si>
+  <si>
+    <t>虾米音乐年卡</t>
+  </si>
+  <si>
+    <t>蝦米音樂年卡</t>
+  </si>
+  <si>
+    <t>星巴克咖啡兑换券</t>
+  </si>
+  <si>
+    <t>星巴克咖啡兌換券</t>
+  </si>
+  <si>
+    <t>天猫超市50元购物券</t>
+  </si>
+  <si>
+    <t>天貓超市50元購物券</t>
+  </si>
+  <si>
+    <t>京东E卡50元</t>
+  </si>
+  <si>
+    <t>京東E卡50元</t>
+  </si>
+  <si>
+    <t>网易严选50元</t>
+  </si>
+  <si>
+    <t>網易嚴選50元</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡50元</t>
+  </si>
+  <si>
+    <t>星巴剋星禮卡50元</t>
+  </si>
+  <si>
+    <t>星巴克星礼卡100元</t>
+  </si>
+  <si>
+    <t>星巴剋星禮卡100元</t>
+  </si>
+  <si>
+    <t>COSTA心艺卡50元</t>
+  </si>
+  <si>
+    <t>COSTA心藝卡50元</t>
+  </si>
+  <si>
+    <t>COSTA心艺卡100元</t>
+  </si>
+  <si>
+    <t>COSTA心藝卡100元</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP月卡</t>
+  </si>
+  <si>
+    <t>網易雲音樂黑膠CVIP月卡</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP季卡</t>
+  </si>
+  <si>
+    <t>網易雲音樂黑膠CVIP季卡</t>
+  </si>
+  <si>
+    <t>网易云音乐黑胶CVIP年卡</t>
+  </si>
+  <si>
+    <t>網易雲音樂黑膠CVIP年卡</t>
+  </si>
+  <si>
+    <t>联通手机充值卡30元</t>
+  </si>
+  <si>
+    <t>聯通手機充值卡30元</t>
+  </si>
+  <si>
+    <t>移动手机充值卡30元</t>
+  </si>
+  <si>
+    <t>移動手機充值卡30元</t>
+  </si>
+  <si>
+    <t>Q币充值：10个</t>
+  </si>
+  <si>
+    <t>Q幣充值：10個</t>
+  </si>
+  <si>
+    <t>QQ会员：月卡</t>
+  </si>
+  <si>
+    <t>QQ會員：月卡</t>
+  </si>
+  <si>
     <t>活动所需票券数量配置表</t>
   </si>
   <si>
@@ -130,9 +316,6 @@
   </si>
   <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>str</t>
   </si>
   <si>
     <t>银券合成金券</t>
@@ -167,10 +350,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -188,6 +371,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,7 +393,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,9 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +424,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -234,14 +462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,29 +470,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,32 +491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +505,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -364,13 +547,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,169 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +738,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,11 +793,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -640,21 +838,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1223,10 +1406,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1235,13 +1427,13 @@
         <v>2001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1250,13 +1442,13 @@
         <v>2002</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1265,13 +1457,13 @@
         <v>2003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1279,202 +1471,600 @@
         <v>1001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="2">
+        <v>500001</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>500002</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2">
+        <v>500003</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2">
+        <v>500004</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2">
+        <v>500005</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2">
+        <v>500006</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="2">
+        <v>500007</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="4">
-        <v>100501</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="5">
-        <v>100601</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="6">
-        <v>100701</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="5">
-        <v>100801</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="6">
-        <v>100901</v>
-      </c>
-      <c r="C19" s="6">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="5">
-        <v>101001</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="6">
-        <v>101101</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5">
-        <v>101201</v>
-      </c>
-      <c r="C22" s="5">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B15" s="2">
+        <v>500008</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="6">
-        <v>600101</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="4:7">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2">
+        <v>500009</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2">
+        <v>500010</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2">
+        <v>500011</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
+        <v>500012</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
+        <v>500013</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2">
+        <v>500014</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2">
+        <v>500015</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2">
+        <v>500016</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2">
+        <v>500017</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2">
+        <v>500018</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2">
+        <v>500019</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="4:7">
-      <c r="D27" s="3"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="2:7">
+      <c r="B27" s="2">
+        <v>500020</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="3"/>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2">
+        <v>500021</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="2">
+        <v>500022</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="2">
+        <v>500023</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="2">
+        <v>500024</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="2">
+        <v>500025</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="2">
+        <v>500026</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2">
+        <v>500027</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2">
+        <v>500028</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2">
+        <v>500029</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2">
+        <v>500030</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="4">
+        <v>100501</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="5">
+        <v>100601</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="6">
+        <v>100701</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="5">
+        <v>100801</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="6">
+        <v>100901</v>
+      </c>
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="5">
+        <v>101001</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="6">
+        <v>101101</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="5">
+        <v>101201</v>
+      </c>
+      <c r="C52" s="5">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="6">
+        <v>600101</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>中級鋤頭</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
   <si>
     <t>高级锄头</t>
@@ -378,10 +384,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,8 +398,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,16 +474,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,9 +483,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,58 +505,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -553,181 +559,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +744,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -771,7 +816,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,45 +844,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,145 +852,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1358,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1454,543 +1460,547 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
-        <v>2003</v>
+        <v>5001</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>6001</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2">
-        <v>500001</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2">
-        <v>500002</v>
+        <v>9527</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2">
-        <v>500003</v>
+        <v>500001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2">
-        <v>500004</v>
+        <v>500002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2">
-        <v>500005</v>
+        <v>500003</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2">
+        <v>500004</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>500005</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2">
         <v>500006</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2">
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2">
         <v>500007</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2">
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2">
         <v>500008</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="2">
-        <v>500009</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2">
-        <v>500010</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2">
-        <v>500011</v>
+        <v>500009</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="2">
-        <v>500012</v>
+        <v>500010</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2">
-        <v>500013</v>
+        <v>500011</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2">
-        <v>500014</v>
+        <v>500012</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="2">
-        <v>500015</v>
+        <v>500013</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="2">
-        <v>500016</v>
+        <v>500014</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2">
-        <v>500017</v>
+        <v>500015</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2">
+        <v>500016</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2">
+        <v>500017</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2">
         <v>500018</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="2">
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="2">
         <v>500019</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="2">
+      <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="2">
         <v>500020</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="2">
-        <v>500021</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2">
-        <v>500022</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
+    <row r="30" spans="2:5">
       <c r="B30" s="2">
-        <v>500023</v>
+        <v>500021</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
+        <v>500022</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2">
+        <v>500023</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2">
         <v>500024</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2">
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2">
         <v>500025</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2">
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2">
         <v>500026</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="2">
-        <v>500027</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="2">
-        <v>500028</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="2">
-        <v>500029</v>
+        <v>500027</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="2">
+        <v>500028</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2">
+        <v>500029</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2">
         <v>500030</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="3" t="s">
+      <c r="C45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="4">
+    <row r="47" spans="2:4">
+      <c r="B47" s="4">
         <v>100501</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C47" s="4">
         <v>3</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="5">
-        <v>100601</v>
-      </c>
-      <c r="C46" s="5">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="6">
-        <v>100701</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="5">
-        <v>100801</v>
+        <v>100601</v>
       </c>
       <c r="C48" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>93</v>
@@ -1998,10 +2008,10 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="6">
-        <v>100901</v>
+        <v>100701</v>
       </c>
       <c r="C49" s="6">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>94</v>
@@ -2009,10 +2019,10 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="5">
-        <v>101001</v>
+        <v>100801</v>
       </c>
       <c r="C50" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>95</v>
@@ -2020,10 +2030,10 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="6">
-        <v>101101</v>
+        <v>100901</v>
       </c>
       <c r="C51" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>96</v>
@@ -2031,10 +2041,10 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="5">
-        <v>101201</v>
+        <v>101001</v>
       </c>
       <c r="C52" s="5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>97</v>
@@ -2042,29 +2052,51 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="6">
-        <v>600101</v>
+        <v>101101</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1"/>
+    <row r="54" spans="2:4">
+      <c r="B54" s="5">
+        <v>101201</v>
+      </c>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="6">
+        <v>600101</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="3"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="3"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1KuPay_wallet\wallet_game\src\earn\client\app\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>yineng</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -84,33 +89,9 @@
     <t>str</t>
   </si>
   <si>
-    <t>初级锄头</t>
-  </si>
-  <si>
-    <t>初級鋤頭</t>
-  </si>
-  <si>
     <t>把</t>
   </si>
   <si>
-    <t>中级锄头</t>
-  </si>
-  <si>
-    <t>中級鋤頭</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>高级锄头</t>
-  </si>
-  <si>
-    <t>高級鋤頭</t>
-  </si>
-  <si>
     <t>谢谢惠顾</t>
   </si>
   <si>
@@ -349,19 +330,48 @@
   </si>
   <si>
     <t>新人登录奖励</t>
+  </si>
+  <si>
+    <t>铁镐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银镐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金镐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎银</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨豆</t>
+  </si>
+  <si>
+    <t>嗨豆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵鎬</t>
+  </si>
+  <si>
+    <t>銀鎬</t>
+  </si>
+  <si>
+    <t>碎銀</t>
+  </si>
+  <si>
+    <t>金鎬</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,151 +386,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,216 +419,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -746,255 +450,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,62 +478,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1085,7 +506,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1358,19 +779,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.875" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
@@ -1378,7 +799,7 @@
     <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1412,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -1427,553 +848,553 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>2001</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2002</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5001</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="C6" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6001</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>2003</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
+      <c r="C8" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>9527</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>500001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>500002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>500003</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>500004</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>500005</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>500006</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="2">
         <v>500007</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>500008</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>500009</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>500010</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>500011</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>500012</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>500013</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>500014</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>500015</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>500016</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>500017</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>500018</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>500019</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <v>500020</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <v>500021</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>500022</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>500023</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>500024</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="2">
         <v>500025</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="2">
         <v>500026</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>500027</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <v>500028</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <v>500029</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <v>500030</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1984,7 +1405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>100501</v>
       </c>
@@ -1992,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" s="5">
         <v>100601</v>
       </c>
@@ -2003,10 +1424,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="6">
         <v>100701</v>
       </c>
@@ -2014,10 +1435,10 @@
         <v>0.1</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="5">
         <v>100801</v>
       </c>
@@ -2025,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="6">
         <v>100901</v>
       </c>
@@ -2036,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="5">
         <v>101001</v>
       </c>
@@ -2047,10 +1468,10 @@
         <v>0.1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="6">
         <v>101101</v>
       </c>
@@ -2058,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="5">
         <v>101201</v>
       </c>
@@ -2069,10 +1490,10 @@
         <v>10</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="6">
         <v>600101</v>
       </c>
@@ -2080,28 +1501,28 @@
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/earn/client/app/xls/dataCfg.xlsx
+++ b/src/earn/client/app/xls/dataCfg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1KuPay_wallet\wallet_game\src\earn\client\app\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>yineng</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>奖品配置表</t>
   </si>
@@ -89,9 +84,36 @@
     <t>str</t>
   </si>
   <si>
+    <t>铁镐</t>
+  </si>
+  <si>
+    <t>鐵鎬</t>
+  </si>
+  <si>
     <t>把</t>
   </si>
   <si>
+    <t>银镐</t>
+  </si>
+  <si>
+    <t>銀鎬</t>
+  </si>
+  <si>
+    <t>碎银</t>
+  </si>
+  <si>
+    <t>碎銀</t>
+  </si>
+  <si>
+    <t>嗨豆</t>
+  </si>
+  <si>
+    <t>金镐</t>
+  </si>
+  <si>
+    <t>金鎬</t>
+  </si>
+  <si>
     <t>谢谢惠顾</t>
   </si>
   <si>
@@ -330,48 +352,19 @@
   </si>
   <si>
     <t>新人登录奖励</t>
-  </si>
-  <si>
-    <t>铁镐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银镐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金镐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎银</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗨豆</t>
-  </si>
-  <si>
-    <t>嗨豆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐵鎬</t>
-  </si>
-  <si>
-    <t>銀鎬</t>
-  </si>
-  <si>
-    <t>碎銀</t>
-  </si>
-  <si>
-    <t>金鎬</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,31 +379,168 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,24 +555,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -450,9 +766,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -466,6 +1024,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,21 +1039,62 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -779,19 +1381,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="31.875" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
@@ -799,7 +1401,7 @@
     <col min="4" max="4" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -848,681 +1450,681 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>2001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2002</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>94</v>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5001</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>96</v>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6001</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>98</v>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>2003</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>95</v>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="2">
         <v>9527</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="2">
         <v>500001</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="2">
         <v>500002</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="2">
         <v>500003</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="2">
         <v>500004</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="2">
         <v>500005</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="2">
         <v>500006</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
       <c r="B16" s="2">
         <v>500007</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
       <c r="B17" s="2">
         <v>500008</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="2">
         <v>500009</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="2">
         <v>500010</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="2">
         <v>500011</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="2">
         <v>500012</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="2">
         <v>500013</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="2">
         <v>500014</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="2">
         <v>500015</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="2">
         <v>500016</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="2">
         <v>500017</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="2">
         <v>500018</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="2">
         <v>500019</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="2">
         <v>500020</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="2">
         <v>500021</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>500022</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>500023</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>500024</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4"/>
       <c r="B34" s="2">
         <v>500025</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4"/>
       <c r="B35" s="2">
         <v>500026</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="2">
         <v>500027</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="2">
         <v>500028</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="2">
         <v>500029</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="2">
         <v>500030</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="4">
+    <row r="47" spans="2:4">
+      <c r="B47" s="5">
         <v>100501</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>3</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="5">
+      <c r="D47" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="6">
         <v>100601</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="6">
         <v>3</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="6">
+      <c r="D48" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="7">
         <v>100701</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="7">
         <v>0.1</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="5">
+      <c r="D49" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="6">
         <v>100801</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="6">
+      <c r="C50" s="6">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="7">
         <v>100901</v>
       </c>
-      <c r="C51" s="6">
-        <v>10</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="5">
+      <c r="C51" s="7">
+        <v>500</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="6">
         <v>101001</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="6">
         <v>0.1</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="6">
+      <c r="D52" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="7">
         <v>101101</v>
       </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="5">
+      <c r="C53" s="7">
+        <v>50</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="6">
         <v>101201</v>
       </c>
-      <c r="C54" s="5">
-        <v>10</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="6">
+      <c r="C54" s="6">
+        <v>500</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="7">
         <v>600101</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="7">
         <v>0</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3"/>
+    <row r="64" spans="2:2">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>